--- a/api/v2/app/e-zip/public/resources/templates/surat-masuk/disposition.xlsx
+++ b/api/v2/app/e-zip/public/resources/templates/surat-masuk/disposition.xlsx
@@ -465,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -569,13 +569,106 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -602,103 +695,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1060,7 +1063,7 @@
   <dimension ref="B2:O35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="B9" sqref="B9:O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1104,17 +1107,17 @@
       <c r="B3" s="31"/>
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="69" t="s">
+      <c r="E3" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
       <c r="N3" s="27"/>
       <c r="O3" s="9"/>
     </row>
@@ -1122,17 +1125,17 @@
       <c r="B4" s="31"/>
       <c r="C4" s="7"/>
       <c r="D4" s="8"/>
-      <c r="E4" s="69" t="s">
+      <c r="E4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
       <c r="N4" s="27"/>
       <c r="O4" s="9"/>
     </row>
@@ -1140,17 +1143,17 @@
       <c r="B5" s="31"/>
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="70" t="s">
+      <c r="E5" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
       <c r="N5" s="28"/>
       <c r="O5" s="10"/>
     </row>
@@ -1158,17 +1161,17 @@
       <c r="B6" s="31"/>
       <c r="C6" s="7"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="70" t="s">
+      <c r="E6" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
       <c r="N6" s="28"/>
       <c r="O6" s="10"/>
     </row>
@@ -1176,17 +1179,17 @@
       <c r="B7" s="31"/>
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="70" t="s">
+      <c r="E7" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
       <c r="N7" s="28"/>
       <c r="O7" s="10"/>
     </row>
@@ -1207,40 +1210,40 @@
       <c r="O8" s="11"/>
     </row>
     <row r="9" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="73"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="41"/>
     </row>
     <row r="10" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="73"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="41"/>
     </row>
     <row r="11" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
@@ -1250,11 +1253,11 @@
       <c r="D11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
       <c r="J11" s="12" t="s">
         <v>10</v>
       </c>
@@ -1282,11 +1285,11 @@
       <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="74"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="76"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="45"/>
       <c r="J12" s="7" t="s">
         <v>11</v>
       </c>
@@ -1310,11 +1313,11 @@
       <c r="D13" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="52"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="46"/>
       <c r="J13" s="7"/>
       <c r="K13" s="8"/>
       <c r="L13" s="22"/>
@@ -1330,11 +1333,11 @@
       <c r="D14" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="77"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="52"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="46"/>
       <c r="J14" s="7"/>
       <c r="K14" s="8"/>
       <c r="L14" s="22"/>
@@ -1350,11 +1353,11 @@
       <c r="D15" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="78"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="52"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="46"/>
       <c r="J15" s="12"/>
       <c r="K15" s="14"/>
       <c r="L15" s="23" t="s">
@@ -1388,7 +1391,7 @@
       <c r="L16" s="36"/>
       <c r="M16" s="36"/>
       <c r="N16" s="36"/>
-      <c r="O16" s="37"/>
+      <c r="O16" s="54"/>
     </row>
     <row r="17" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
@@ -1398,65 +1401,65 @@
       <c r="D17" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="52"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="46"/>
     </row>
     <row r="18" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="50"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="53"/>
       <c r="F18" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="49" t="s">
+      <c r="G18" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="50"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="53"/>
       <c r="L18" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="M18" s="49" t="s">
+      <c r="M18" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="N18" s="49"/>
-      <c r="O18" s="50"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="53"/>
     </row>
     <row r="19" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="46" t="s">
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="48"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="51"/>
     </row>
     <row r="20" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="33" t="s">
@@ -1484,7 +1487,7 @@
         <v>37</v>
       </c>
       <c r="N20" s="36"/>
-      <c r="O20" s="37"/>
+      <c r="O20" s="54"/>
     </row>
     <row r="21" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="33"/>
@@ -1504,113 +1507,113 @@
     </row>
     <row r="22" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="34"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="60"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="62"/>
       <c r="H22" s="25"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
       <c r="L22" s="25"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="60"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="62"/>
     </row>
     <row r="23" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="58"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="60"/>
     </row>
     <row r="24" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="61"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="62"/>
-      <c r="O24" s="63"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="65"/>
     </row>
     <row r="25" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="64" t="s">
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="65"/>
-      <c r="N25" s="65"/>
-      <c r="O25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="77"/>
     </row>
     <row r="26" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="53" t="s">
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="68"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="78"/>
     </row>
     <row r="27" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="38" t="s">
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="40"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="70"/>
+      <c r="O27" s="71"/>
     </row>
     <row r="28" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
@@ -1653,99 +1656,121 @@
       <c r="O29" s="10"/>
     </row>
     <row r="30" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="41"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="44"/>
-      <c r="M30" s="44"/>
-      <c r="N30" s="44"/>
-      <c r="O30" s="45"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="75"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="75"/>
+      <c r="M30" s="75"/>
+      <c r="N30" s="75"/>
+      <c r="O30" s="76"/>
     </row>
     <row r="31" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35" t="s">
+      <c r="C31" s="79"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="79"/>
+      <c r="N31" s="79"/>
+      <c r="O31" s="79"/>
     </row>
     <row r="32" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35" t="s">
+      <c r="C32" s="79"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
+      <c r="J32" s="79"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="79"/>
+      <c r="M32" s="79"/>
+      <c r="N32" s="79"/>
+      <c r="O32" s="79"/>
     </row>
     <row r="34" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="36"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
     </row>
     <row r="35" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="36"/>
-      <c r="O35" s="36"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="I34:O34"/>
-    <mergeCell ref="I35:O35"/>
+  <mergeCells count="38">
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="I31:O31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="I32:O32"/>
+    <mergeCell ref="I27:O27"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="I30:O30"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I25:O25"/>
+    <mergeCell ref="I26:O26"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B23:O23"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B24:O24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="E16:O16"/>
+    <mergeCell ref="E17:O17"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="M18:O18"/>
     <mergeCell ref="E3:M3"/>
     <mergeCell ref="E4:M4"/>
     <mergeCell ref="E5:M5"/>
@@ -1758,32 +1783,6 @@
     <mergeCell ref="E13:I13"/>
     <mergeCell ref="E14:I14"/>
     <mergeCell ref="E15:I15"/>
-    <mergeCell ref="H19:O19"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="E16:O16"/>
-    <mergeCell ref="E17:O17"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B23:O23"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B24:O24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="I27:O27"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="I30:O30"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I25:O25"/>
-    <mergeCell ref="I26:O26"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="I31:O31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="I32:O32"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
